--- a/Mini Project 4/result.xlsx
+++ b/Mini Project 4/result.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/eeb1337d597c500e/Documents/Rensselaer Polytechnic Institute/ECSE4961/Assignments/4/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="118" documentId="11_F25DC773A252ABDACC1048F0391A74DE5BDE58EA" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{2A871433-09C8-44A5-8AED-58EB213B85A1}"/>
+  <xr:revisionPtr revIDLastSave="130" documentId="11_F25DC773A252ABDACC1048F0391A74DE5BDE58EA" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{6997ACE6-2B79-4D01-AF86-6EDD87437AA1}"/>
   <bookViews>
-    <workbookView xWindow="14595" yWindow="3255" windowWidth="18840" windowHeight="12495" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -280,6 +280,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -289,7 +290,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -464,13 +464,13 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>1</c:v>
+                  <c:v>0.23400000000000001</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2</c:v>
+                  <c:v>2.3119999999999998</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>37</c:v>
+                  <c:v>48.905999999999999</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -829,31 +829,31 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="9"/>
                 <c:pt idx="0">
-                  <c:v>1</c:v>
+                  <c:v>1E-3</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1</c:v>
+                  <c:v>1E-3</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1</c:v>
+                  <c:v>1E-3</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1</c:v>
+                  <c:v>1E-3</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1</c:v>
+                  <c:v>1E-3</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1</c:v>
+                  <c:v>1E-3</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1</c:v>
+                  <c:v>1.6E-2</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>1</c:v>
+                  <c:v>3.1E-2</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>1</c:v>
+                  <c:v>9.0999999999999998E-2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2459,7 +2459,7 @@
   <dimension ref="B2:F26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F12" sqref="F12"/>
+      <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2471,12 +2471,12 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B2" s="7" t="s">
+      <c r="B2" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="C2" s="8"/>
-      <c r="D2" s="8"/>
-      <c r="E2" s="9"/>
+      <c r="C2" s="9"/>
+      <c r="D2" s="9"/>
+      <c r="E2" s="10"/>
     </row>
     <row r="3" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B3" s="1" t="s">
@@ -2500,7 +2500,7 @@
         <v>932</v>
       </c>
       <c r="D4" s="2">
-        <v>1</v>
+        <v>0.23400000000000001</v>
       </c>
       <c r="E4" s="3" t="s">
         <v>10</v>
@@ -2514,7 +2514,7 @@
         <v>9382</v>
       </c>
       <c r="D5" s="2">
-        <v>2</v>
+        <v>2.3119999999999998</v>
       </c>
       <c r="E5" s="3" t="s">
         <v>11</v>
@@ -2528,20 +2528,20 @@
         <v>184132</v>
       </c>
       <c r="D6" s="5">
-        <v>37</v>
+        <v>48.905999999999999</v>
       </c>
       <c r="E6" s="6" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="16" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B16" s="7" t="s">
+      <c r="B16" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="C16" s="8"/>
-      <c r="D16" s="8"/>
-      <c r="E16" s="8"/>
-      <c r="F16" s="9"/>
+      <c r="C16" s="9"/>
+      <c r="D16" s="9"/>
+      <c r="E16" s="9"/>
+      <c r="F16" s="10"/>
     </row>
     <row r="17" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B17" s="1" t="s">
@@ -2568,7 +2568,7 @@
         <v>20</v>
       </c>
       <c r="D18" s="2">
-        <v>1</v>
+        <v>1E-3</v>
       </c>
       <c r="E18" s="2" t="s">
         <v>19</v>
@@ -2585,7 +2585,7 @@
         <v>21</v>
       </c>
       <c r="D19" s="2">
-        <v>1</v>
+        <v>1E-3</v>
       </c>
       <c r="E19" s="2" t="s">
         <v>22</v>
@@ -2602,7 +2602,7 @@
         <v>17</v>
       </c>
       <c r="D20" s="2">
-        <v>1</v>
+        <v>1E-3</v>
       </c>
       <c r="E20" s="2" t="s">
         <v>16</v>
@@ -2619,7 +2619,7 @@
         <v>24</v>
       </c>
       <c r="D21" s="2">
-        <v>1</v>
+        <v>1E-3</v>
       </c>
       <c r="E21" s="2" t="s">
         <v>23</v>
@@ -2635,8 +2635,8 @@
       <c r="C22" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="D22" s="10">
-        <v>1</v>
+      <c r="D22" s="7">
+        <v>1E-3</v>
       </c>
       <c r="E22" s="2" t="s">
         <v>26</v>
@@ -2652,8 +2652,8 @@
       <c r="C23" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="D23" s="10">
-        <v>1</v>
+      <c r="D23" s="7">
+        <v>1E-3</v>
       </c>
       <c r="E23" s="2" t="s">
         <v>27</v>
@@ -2669,8 +2669,8 @@
       <c r="C24" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="D24" s="10">
-        <v>1</v>
+      <c r="D24" s="7">
+        <v>1.6E-2</v>
       </c>
       <c r="E24" s="2" t="s">
         <v>30</v>
@@ -2686,8 +2686,8 @@
       <c r="C25" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="D25" s="10">
-        <v>1</v>
+      <c r="D25" s="7">
+        <v>3.1E-2</v>
       </c>
       <c r="E25" s="2" t="s">
         <v>32</v>
@@ -2704,7 +2704,7 @@
         <v>33</v>
       </c>
       <c r="D26" s="5">
-        <v>1</v>
+        <v>9.0999999999999998E-2</v>
       </c>
       <c r="E26" s="5" t="s">
         <v>34</v>
